--- a/data/unchecked/manual_collect/china/yunnan/yunnanCaseStatistics_20200425.xlsx
+++ b/data/unchecked/manual_collect/china/yunnan/yunnanCaseStatistics_20200425.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xenosaga\Desktop\ncov\COVID-19\data\unchecked\manual_collect\china\yunnan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CED9CCD-9466-4025-9A0F-CE411D48E5BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{688A0F72-379B-4B88-992F-BDEFB8F06A7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11055,8 +11055,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AT21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AF3" sqref="AF3:AF21"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.84375" defaultRowHeight="16.5"/>
@@ -11269,7 +11269,7 @@
         <v>185</v>
       </c>
       <c r="R2" s="20">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="S2" s="12">
         <v>2</v>
